--- a/biology/Botanique/Bacillariophyceae/Bacillariophyceae.xlsx
+++ b/biology/Botanique/Bacillariophyceae/Bacillariophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diatomophyceae
 Les Bacillariophyceae (ou Diatomophyceae) forment une classe d'algues. Ce sont des microalgues unicellulaires planctoniques des eaux douces et marines, d'une taille allant de trois micromètres à un millimètre et appartenant aux diatomées.
@@ -520,9 +532,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 jan. 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 jan. 2022) :
 ordre Bacillariales
 ordre Cocconeidales
 ordre Cyclophorales
@@ -543,14 +557,14 @@
 ordre Surirellales
 ordre Thalassionematales
 ordre Thalassiophysales
-Selon ITIS      (13 janvier 2022)[2] :
+Selon ITIS      (13 janvier 2022) :
 genre Stigmaphora Wallich
 sous-classe Bacillariophycidae Mann
 sous-classe Coscinodiscophycidae Round &amp; Crawford
 sous-classe Fragilariophycidae Round
 genre Auriculopsis Hendey
 genre Nephroneis Amspoker
-Selon NCBI  (13 janvier 2022)[3] :
+Selon NCBI  (13 janvier 2022) :
 clade Bacillariophycidae
 ordre Achnanthales
 ordre Bacillariales
